--- a/db2 ASSIGNMENT.xlsx
+++ b/db2 ASSIGNMENT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_B4DEA906B0693C2F2E435178F629404021435B06" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D2CCA9-79CF-47E2-A73A-097FFDE72956}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="106">
   <si>
     <t>eno</t>
   </si>
@@ -267,12 +267,94 @@
 ---------------------------------------
 Total Basic : ____________</t>
   </si>
+  <si>
+    <t>foreign key</t>
+  </si>
+  <si>
+    <t>primary key</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>3. Display all departments having 'a' in department name</t>
+  </si>
+  <si>
+    <t>4. Display all employees whose edlevel is more than 10 and their names start with 'R'. List should be in ascending order or edlevel</t>
+  </si>
+  <si>
+    <t>5. display the employee details as follows: "Firstname is JobCD" for every employee.
+E.g RAMAN is J01</t>
+  </si>
+  <si>
+    <t>6. Display the first two characters of all the firstname in lower case</t>
+  </si>
+  <si>
+    <t>7. display the age of all employees in years. The column name should be "Age"</t>
+  </si>
+  <si>
+    <t>9. For each jobcd find the maximum salary</t>
+  </si>
+  <si>
+    <t>11. In each department for employees who have jobcd starting with J list the maximum basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. In each department, where more than 2 employees work, list the minimum basic </t>
+  </si>
+  <si>
+    <t>basic and scalar functions</t>
+  </si>
+  <si>
+    <t>Group by</t>
+  </si>
+  <si>
+    <t>8. List employees who were atleast 20 years when they joined the company</t>
+  </si>
+  <si>
+    <t>10. In each department for employees who have jobcd starting with J list the maximum basic</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>9. display all the employees whose carry home salary is more than 10000. carry home salary = (basic + varpay)</t>
+  </si>
+  <si>
+    <t>Join</t>
+  </si>
+  <si>
+    <t>1. for all the employees list the job description</t>
+  </si>
+  <si>
+    <t>2. for all the employees list the department name and job description</t>
+  </si>
+  <si>
+    <t>3. for all the employees working in bangalore display the job description</t>
+  </si>
+  <si>
+    <t>4. display the department name and number of employees in each department</t>
+  </si>
+  <si>
+    <t>5. for all jobdescription which has 'S', display the maximum salary by job code</t>
+  </si>
+  <si>
+    <t>6. list all departments which do not have any employees</t>
+  </si>
+  <si>
+    <t>7. For all employees who have joined before Jan-01-2019, display their jobdesc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +364,16 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -339,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -367,6 +459,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,114 +1284,361 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>62</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>76</v>
       </c>
     </row>
